--- a/assets/excel/Grupos Despido Injustificado.xlsx
+++ b/assets/excel/Grupos Despido Injustificado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Calculos para Despidos Injustificados</t>
   </si>
@@ -32,19 +32,31 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>z</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>Jonathan Valdez Martinez</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>list</t>
   </si>
   <si>
     <t>2020-06-01</t>
-  </si>
-  <si>
-    <t>Jonathan Valdez Martinez</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>2020-06-03</t>
   </si>
 </sst>
 </file>
@@ -424,10 +436,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -510,10 +522,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -527,6 +539,29 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
